--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_121_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_121_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.6030076796892003, 2.3815076116766267]</t>
+          <t>[1.5944767972899485, 2.3900384940758785]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>3.956834859764058e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>3.956834859764058e-13</v>
       </c>
       <c r="O2" t="n">
         <v>1.201289683354656</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.20819195359722165, 0.6463797281190808]</t>
+          <t>[0.208487330209437, 0.6460843515068655]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0002916306737297258</v>
+        <v>0.0002868902141732743</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002916306737297258</v>
+        <v>0.0002868902141732743</v>
       </c>
       <c r="W2" t="n">
         <v>21.39299299299381</v>
